--- a/PTGX.xlsx
+++ b/PTGX.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB698DB-5BF0-43A0-9024-9F42044F1DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F080C9-CD71-4C59-9556-6EAD63B8C285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31845" yWindow="0" windowWidth="31755" windowHeight="20985" xr2:uid="{E49AB4AD-3197-476A-9D12-79E256BF28A1}"/>
+    <workbookView xWindow="-29775" yWindow="495" windowWidth="29265" windowHeight="19335" xr2:uid="{E49AB4AD-3197-476A-9D12-79E256BF28A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="rusfertide" sheetId="4" r:id="rId2"/>
-    <sheet name="JNJ-2113" sheetId="2" r:id="rId3"/>
-    <sheet name="Model" sheetId="3" r:id="rId4"/>
+    <sheet name="Model" sheetId="3" r:id="rId2"/>
+    <sheet name="rusfertide" sheetId="4" r:id="rId3"/>
+    <sheet name="JNJ-2113" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="97">
   <si>
     <t>Price</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Generic</t>
   </si>
   <si>
-    <t>Icotrokinra</t>
-  </si>
-  <si>
     <t>Economics</t>
   </si>
   <si>
@@ -315,6 +312,24 @@
   </si>
   <si>
     <t>37-42%</t>
+  </si>
+  <si>
+    <t>Psoriasis</t>
+  </si>
+  <si>
+    <t>icotrokinra</t>
+  </si>
+  <si>
+    <t>JNJ-2113, fka JNJ-77242113/PN-235</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>JNJ</t>
   </si>
 </sst>
 </file>
@@ -465,7 +480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -473,7 +488,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -481,7 +495,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -523,14 +536,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>421050</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>65897</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>351522</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>96356</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>96357</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -584,14 +597,14 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>310980</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>6568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>134360</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>1641</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>1642</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -645,14 +658,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>383906</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>39544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>2508</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1051,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17C3351-904B-45B9-9BE5-F4E19BB0A4C4}">
   <dimension ref="B2:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1066,46 +1079,53 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
+      <c r="F2" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11"/>
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>45.02</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
+      <c r="F3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="5"/>
       <c r="K3" t="s">
         <v>1</v>
       </c>
@@ -1117,39 +1137,30 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6"/>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="5"/>
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>2651.8844167000002</v>
+        <v>2238.3742299999999</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6"/>
+      <c r="I5" s="5"/>
       <c r="K5" t="s">
         <v>3</v>
       </c>
@@ -1163,13 +1174,7 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6"/>
+      <c r="I6" s="5"/>
       <c r="K6" t="s">
         <v>4</v>
       </c>
@@ -1182,30 +1187,24 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6"/>
+      <c r="I7" s="5"/>
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>2056.4404167000002</v>
+        <v>1642.9302299999999</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1217,349 +1216,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CBF7A3-7E97-4630-BCA7-8686A182D672}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C7" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{CEADE976-1DA0-471D-89BB-C46529BAD875}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B35B9E-1E64-4355-9C41-8C295688A3F8}">
-  <dimension ref="A1:K52"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C15" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C16" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" t="s">
-        <v>58</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C17" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C22" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C24" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C30" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C32" s="17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C41" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C44" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C47" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C52" s="16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{CFDA073A-5998-4A97-8F37-64ABBA9483F9}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07C0FEB-D0E0-45BE-9D2D-9D33993104C4}">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1573,7 +1237,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1659,19 +1323,19 @@
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="E3" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>62</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>63</v>
       </c>
       <c r="H3" s="2">
         <v>500</v>
@@ -1697,33 +1361,33 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="18">
+        <v>63</v>
+      </c>
+      <c r="H4" s="16">
         <v>0.1</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="16">
         <v>0.11</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="16">
         <v>0.12</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="16">
         <v>0.13</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="16">
         <v>0.13</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="16">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="16">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -1782,7 +1446,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" s="2">
         <v>50</v>
@@ -1830,9 +1494,9 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="20"/>
+        <v>75</v>
+      </c>
+      <c r="F7" s="18"/>
       <c r="H7" s="2">
         <f>+H6*0.7</f>
         <v>35</v>
@@ -1862,7 +1526,7 @@
         <v>357.03499999999997</v>
       </c>
       <c r="O7" s="2">
-        <f t="shared" si="3"/>
+        <f>+O6*0.7</f>
         <v>360.60534999999993</v>
       </c>
       <c r="P7" s="2">
@@ -1884,7 +1548,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H8" s="2">
         <f>+H7*0.5</f>
@@ -1915,7 +1579,7 @@
         <v>178.51749999999998</v>
       </c>
       <c r="O8" s="2">
-        <f t="shared" si="4"/>
+        <f>+O7*0.5</f>
         <v>180.30267499999997</v>
       </c>
       <c r="P8" s="2">
@@ -1937,7 +1601,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H9" s="2">
         <f>+G14*$C$18</f>
@@ -1990,7 +1654,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H10" s="2">
         <f>+H5+H8+H9</f>
@@ -2021,7 +1685,7 @@
         <v>755.29521049549089</v>
       </c>
       <c r="O10" s="2">
-        <f t="shared" si="6"/>
+        <f>+O5+O8+O9</f>
         <v>786.14983223134652</v>
       </c>
       <c r="P10" s="2">
@@ -2043,7 +1707,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H11" s="2">
         <f>+H10*0.2</f>
@@ -2096,7 +1760,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F12" s="3">
         <v>-100</v>
@@ -2169,7 +1833,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" s="3">
         <v>595</v>
@@ -2233,36 +1897,36 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="22">
+        <v>81</v>
+      </c>
+      <c r="C18" s="20">
         <v>0.04</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="22">
-        <v>0.1</v>
+        <v>82</v>
+      </c>
+      <c r="C19" s="20">
+        <v>0.09</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="20">
+        <v>83</v>
+      </c>
+      <c r="C20" s="18">
         <f>NPV(C19,F12:S12)+E14</f>
-        <v>2736.3237595416776</v>
+        <v>2937.652461073525</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="19">
+        <v>85</v>
+      </c>
+      <c r="C21" s="17">
         <f>C20/Main!L3</f>
-        <v>46.453493553034583</v>
+        <v>49.871371830792548</v>
       </c>
     </row>
   </sheetData>
@@ -2271,4 +1935,349 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CBF7A3-7E97-4630-BCA7-8686A182D672}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{CEADE976-1DA0-471D-89BB-C46529BAD875}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B35B9E-1E64-4355-9C41-8C295688A3F8}">
+  <dimension ref="A1:K53"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C16" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C17" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C18" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C23" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C25" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C31" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C48" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{CFDA073A-5998-4A97-8F37-64ABBA9483F9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>